--- a/melanobs-fcc-carbon-biodiversity-data/tables/carbon_maps.xlsx
+++ b/melanobs-fcc-carbon-biodiversity-data/tables/carbon_maps.xlsx
@@ -5,10 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="93">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -244,6 +246,24 @@
     <t xml:space="preserve">GLC2000 forests</t>
   </si>
   <si>
+    <t xml:space="preserve">GEDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dubayah 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.3334/ORNLDAAC/2299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://daac.ornl.gov/cgi-bin/dsviewer.pl?ds_id=2299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LiDAR GEDI 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Visualization</t>
   </si>
   <si>
@@ -254,6 +274,33 @@
   </si>
   <si>
     <t xml:space="preserve">see also article by Araza et al. 2022 RSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landsat-8, ALOS PALSAR, SRTM DEM, ICESAT-1, ALS, field data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLAS, MODIS, SRTM, field data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLAS, Landsat, SRTM, field data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass values per land cover type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LiDAR GEDI 2, ALS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landsat-8, ALOS PALSAR, SRTM DEM, ICESAT-1, ALS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLAS, MODIS, QSCAT, SRTM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLAS, MODIS, SRTM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLAS, Landsat, SRTM</t>
   </si>
 </sst>
 </file>
@@ -263,7 +310,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +340,12 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -337,21 +390,33 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -603,532 +668,575 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="37.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="60"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="38.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="37.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="60"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="21.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="13.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="L2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="4" t="n">
         <v>2010</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="J3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="L3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="4" t="n">
         <v>2020</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="J4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="L4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="J5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="L5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="J6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="L6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="1" t="s">
+      <c r="J8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="1" t="s">
+      <c r="L8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="D9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="I9" s="4" t="n">
         <v>2008</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="1" t="s">
+      <c r="J9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" s="1" t="s">
+      <c r="L9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="1" t="s">
+      <c r="J10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="1" t="s">
+      <c r="L10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="D11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="1" t="s">
+      <c r="J11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" s="1" t="s">
+      <c r="L11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="I12" s="4" t="n">
         <v>2008</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="1" t="s">
+      <c r="J12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="M12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>74</v>
       </c>
+      <c r="B13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>75</v>
+      <c r="A15" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>76</v>
+      <c r="A16" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>77</v>
+      <c r="A17" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1151,8 +1259,10 @@
     <hyperlink ref="G11" r:id="rId16" display="https://doi.org/10.1098/rstb.2019.0128"/>
     <hyperlink ref="H11" r:id="rId17" display="https://doi.org/10.34892/rh7v-hg80 "/>
     <hyperlink ref="H12" r:id="rId18" display="http://lucid.wur.nl/datasets/high-carbon-ecosystems"/>
-    <hyperlink ref="A15" r:id="rId19" display="https://earthdata.nasa.gov/maap-biomass"/>
-    <hyperlink ref="A16" r:id="rId20" display="https://carbonmaps.ourecosystem.com/interface/"/>
+    <hyperlink ref="G13" r:id="rId19" display="https://doi.org/10.3334/ORNLDAAC/2299"/>
+    <hyperlink ref="H13" r:id="rId20" display="https://daac.ornl.gov/cgi-bin/dsviewer.pl?ds_id=2299"/>
+    <hyperlink ref="A16" r:id="rId21" display="https://earthdata.nasa.gov/maap-biomass"/>
+    <hyperlink ref="A17" r:id="rId22" display="https://carbonmaps.ourecosystem.com/interface/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1162,4 +1272,455 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="58.33"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="54.02"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>